--- a/data/trans_orig/IP09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C589B83F-61E0-4BBF-B001-529B5F4A9512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B572BA3-F839-46E3-80F2-DC1B8E6FDF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{3021687C-F128-4624-8309-4AD2564D2D28}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A124198E-7EC6-47FC-9087-FED64E0CA478}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
   <si>
     <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2007 (Tasa respuesta: 9,84%)</t>
   </si>
@@ -77,841 +77,853 @@
     <t>33,09%</t>
   </si>
   <si>
-    <t>13,17%</t>
-  </si>
-  <si>
-    <t>60,02%</t>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>59,88%</t>
   </si>
   <si>
     <t>24,49%</t>
   </si>
   <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>53,47%</t>
+    <t>7,58%</t>
+  </si>
+  <si>
+    <t>59,5%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
-    <t>13,77%</t>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>48,64%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>40,12%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>40,5%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>51,36%</t>
+  </si>
+  <si>
+    <t>85,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>20,49%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>14,55%</t>
+  </si>
+  <si>
+    <t>41,79%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,1%</t>
+  </si>
+  <si>
+    <t>37,85%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>79,51%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>58,21%</t>
+  </si>
+  <si>
+    <t>85,45%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>62,15%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>43,09%</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>35,15%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>33,48%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>64,85%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>66,52%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,16%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,4%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,71%</t>
+  </si>
+  <si>
+    <t>32,99%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>85,6%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>67,01%</t>
+  </si>
+  <si>
+    <t>79,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>83,0%</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>21,09%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>33,37%</t>
+  </si>
+  <si>
+    <t>67,07%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>17,0%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>32,93%</t>
+  </si>
+  <si>
+    <t>66,63%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>23,09%</t>
+  </si>
+  <si>
+    <t>42,42%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>45,49%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>57,58%</t>
+  </si>
+  <si>
+    <t>76,91%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>54,51%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>41,09%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>49,02%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
+    <t>37,74%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>58,91%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>62,26%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,54%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,24%</t>
+  </si>
+  <si>
+    <t>39,57%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>56,59%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>60,43%</t>
+  </si>
+  <si>
+    <t>71,76%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>74,63%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>25,37%</t>
+  </si>
+  <si>
+    <t>28,59%</t>
+  </si>
+  <si>
+    <t>88,26%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>29,04%</t>
+  </si>
+  <si>
+    <t>56,94%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>29,03%</t>
+  </si>
+  <si>
+    <t>57,91%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>52,99%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>43,06%</t>
+  </si>
+  <si>
+    <t>70,96%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>42,09%</t>
+  </si>
+  <si>
+    <t>70,97%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>27,8%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>62,37%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>28,31%</t>
+  </si>
+  <si>
+    <t>63,56%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>19,85%</t>
+  </si>
+  <si>
+    <t>72,2%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>37,63%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>36,44%</t>
+  </si>
+  <si>
+    <t>71,69%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>35,12%</t>
+  </si>
+  <si>
+    <t>58,5%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,06%</t>
+  </si>
+  <si>
+    <t>52,63%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>36,49%</t>
+  </si>
+  <si>
+    <t>52,28%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>64,88%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>47,37%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>47,72%</t>
+  </si>
+  <si>
+    <t>63,51%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
+  </si>
+  <si>
+    <t>51,26%</t>
+  </si>
+  <si>
+    <t>25,09%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>55,35%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>52,84%</t>
+  </si>
+  <si>
+    <t>31,84%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
   </si>
   <si>
     <t>48,74%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>39,98%</t>
-  </si>
-  <si>
-    <t>86,83%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>46,53%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>40,08%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>42,17%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>59,92%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>57,83%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>9,89%</t>
-  </si>
-  <si>
-    <t>40,13%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>36,78%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>31,9%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>59,87%</t>
-  </si>
-  <si>
-    <t>90,11%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>63,22%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>68,1%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>36,81%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>32,42%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,87%</t>
-  </si>
-  <si>
-    <t>32,33%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>67,58%</t>
-  </si>
-  <si>
-    <t>85,34%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>67,67%</t>
-  </si>
-  <si>
-    <t>79,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>33,59%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>21,06%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>33,34%</t>
-  </si>
-  <si>
-    <t>66,0%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>17,3%</t>
-  </si>
-  <si>
-    <t>66,41%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>78,94%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>34,0%</t>
-  </si>
-  <si>
-    <t>66,66%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>44,91%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>26,11%</t>
-  </si>
-  <si>
-    <t>40,18%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>55,09%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>59,82%</t>
-  </si>
-  <si>
-    <t>73,89%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>41,41%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>9,24%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>13,27%</t>
-  </si>
-  <si>
-    <t>37,99%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>58,59%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>90,76%</t>
-  </si>
-  <si>
-    <t>62,01%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>25,55%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,47%</t>
-  </si>
-  <si>
-    <t>43,01%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>56,99%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>71,4%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2015 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>74,98%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>73,06%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>25,02%</t>
-  </si>
-  <si>
-    <t>26,94%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>30,63%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>55,74%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>33,67%</t>
-  </si>
-  <si>
-    <t>52,69%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>44,26%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>47,31%</t>
-  </si>
-  <si>
-    <t>66,33%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>27,69%</t>
-  </si>
-  <si>
-    <t>79,91%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>16,28%</t>
-  </si>
-  <si>
-    <t>62,55%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>20,09%</t>
-  </si>
-  <si>
-    <t>72,31%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>83,72%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>71,97%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>35,08%</t>
-  </si>
-  <si>
-    <t>57,74%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,63%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>35,95%</t>
-  </si>
-  <si>
-    <t>52,23%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>42,26%</t>
-  </si>
-  <si>
-    <t>64,92%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>47,13%</t>
-  </si>
-  <si>
-    <t>70,37%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>47,77%</t>
-  </si>
-  <si>
-    <t>64,05%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>74,75%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>75,11%</t>
-  </si>
-  <si>
-    <t>25,25%</t>
-  </si>
-  <si>
-    <t>76,4%</t>
+    <t>22,49%</t>
+  </si>
+  <si>
+    <t>74,91%</t>
   </si>
   <si>
     <t>44,65%</t>
   </si>
   <si>
-    <t>7,99%</t>
+    <t>8,48%</t>
   </si>
   <si>
     <t>47,16%</t>
   </si>
   <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>68,16%</t>
   </si>
   <si>
     <t>30,81%</t>
   </si>
   <si>
-    <t>19,42%</t>
-  </si>
-  <si>
-    <t>43,87%</t>
+    <t>19,28%</t>
+  </si>
+  <si>
+    <t>42,98%</t>
   </si>
   <si>
     <t>33,84%</t>
   </si>
   <si>
-    <t>21,82%</t>
-  </si>
-  <si>
-    <t>48,09%</t>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>48,85%</t>
   </si>
   <si>
     <t>31,98%</t>
   </si>
   <si>
-    <t>22,68%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>41,91%</t>
   </si>
   <si>
     <t>69,19%</t>
   </si>
   <si>
-    <t>56,13%</t>
-  </si>
-  <si>
-    <t>80,58%</t>
+    <t>57,02%</t>
+  </si>
+  <si>
+    <t>80,72%</t>
   </si>
   <si>
     <t>66,16%</t>
   </si>
   <si>
-    <t>51,91%</t>
-  </si>
-  <si>
-    <t>78,18%</t>
+    <t>51,15%</t>
+  </si>
+  <si>
+    <t>77,9%</t>
   </si>
   <si>
     <t>68,02%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>77,32%</t>
+    <t>58,09%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
   </si>
   <si>
     <t>25,69%</t>
   </si>
   <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>45,54%</t>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>47,99%</t>
   </si>
   <si>
     <t>30,24%</t>
   </si>
   <si>
-    <t>14,37%</t>
-  </si>
-  <si>
-    <t>50,4%</t>
+    <t>14,36%</t>
+  </si>
+  <si>
+    <t>50,82%</t>
   </si>
   <si>
     <t>27,72%</t>
   </si>
   <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>41,49%</t>
+    <t>16,79%</t>
   </si>
   <si>
     <t>74,31%</t>
   </si>
   <si>
-    <t>54,46%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
+    <t>52,01%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
   </si>
   <si>
     <t>69,76%</t>
   </si>
   <si>
-    <t>49,6%</t>
-  </si>
-  <si>
-    <t>85,63%</t>
+    <t>49,18%</t>
+  </si>
+  <si>
+    <t>85,64%</t>
   </si>
   <si>
     <t>72,28%</t>
   </si>
   <si>
-    <t>58,51%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
+    <t>83,21%</t>
   </si>
   <si>
     <t>31,85%</t>
   </si>
   <si>
-    <t>22,22%</t>
-  </si>
-  <si>
-    <t>40,9%</t>
+    <t>21,99%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>35,02%</t>
   </si>
   <si>
-    <t>25,18%</t>
+    <t>25,34%</t>
+  </si>
+  <si>
+    <t>47,54%</t>
   </si>
   <si>
     <t>33,12%</t>
   </si>
   <si>
-    <t>25,83%</t>
-  </si>
-  <si>
-    <t>40,25%</t>
+    <t>25,71%</t>
+  </si>
+  <si>
+    <t>40,67%</t>
   </si>
   <si>
     <t>68,15%</t>
   </si>
   <si>
-    <t>59,1%</t>
-  </si>
-  <si>
-    <t>77,78%</t>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>78,01%</t>
   </si>
   <si>
     <t>64,98%</t>
   </si>
   <si>
-    <t>74,82%</t>
+    <t>52,46%</t>
+  </si>
+  <si>
+    <t>74,66%</t>
   </si>
   <si>
     <t>66,88%</t>
   </si>
   <si>
-    <t>59,75%</t>
-  </si>
-  <si>
-    <t>74,17%</t>
+    <t>59,33%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
   </si>
 </sst>
 </file>
@@ -1323,7 +1335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3F795F8-F72D-4952-B142-6A981DC9491D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F44421-3B5F-497D-BF9C-B14528E49831}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2074,7 +2086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{182BEEA6-145E-4B7B-84DD-2A1031446B89}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74416689-6218-43D4-9CD7-E8F15DA61CA6}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2255,7 +2267,7 @@
         <v>99</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="H5" s="7">
         <v>11</v>
@@ -2264,13 +2276,13 @@
         <v>7391</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>101</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>103</v>
       </c>
       <c r="M5" s="7">
         <v>17</v>
@@ -2279,13 +2291,13 @@
         <v>11995</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2353,13 +2365,13 @@
         <v>22883</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="H7" s="7">
         <v>28</v>
@@ -2368,13 +2380,13 @@
         <v>18961</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>112</v>
       </c>
       <c r="M7" s="7">
         <v>60</v>
@@ -2383,13 +2395,13 @@
         <v>41844</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,13 +2416,13 @@
         <v>47512</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>118</v>
       </c>
       <c r="H8" s="7">
         <v>52</v>
@@ -2419,13 +2431,13 @@
         <v>35922</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="M8" s="7">
         <v>120</v>
@@ -2434,13 +2446,13 @@
         <v>83434</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,13 +2520,13 @@
         <v>4422</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>127</v>
       </c>
       <c r="H10" s="7">
         <v>6</v>
@@ -2523,13 +2535,13 @@
         <v>4081</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>129</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>130</v>
       </c>
       <c r="M10" s="7">
         <v>12</v>
@@ -2538,13 +2550,13 @@
         <v>8503</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>108</v>
+        <v>129</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2571,13 @@
         <v>16052</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>133</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -2574,13 +2586,13 @@
         <v>11159</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>138</v>
       </c>
       <c r="M11" s="7">
         <v>39</v>
@@ -2589,7 +2601,7 @@
         <v>27211</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>118</v>
+        <v>138</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>139</v>
@@ -2825,7 +2837,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FCE9DD8-6081-41E1-B862-EEE52D8B19E6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3152F4D9-49D2-469A-AC0C-341C1AE71257}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3158,10 +3170,10 @@
         <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
         <v>26</v>
@@ -3170,13 +3182,13 @@
         <v>17818</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -3185,13 +3197,13 @@
         <v>39588</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3259,13 +3271,13 @@
         <v>5552</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
         <v>7</v>
@@ -3274,13 +3286,13 @@
         <v>4418</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3289,13 +3301,13 @@
         <v>9970</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3310,13 +3322,13 @@
         <v>4607</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="H11" s="7">
         <v>11</v>
@@ -3325,13 +3337,13 @@
         <v>7179</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -3340,13 +3352,13 @@
         <v>11786</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3414,13 +3426,13 @@
         <v>23775</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H13" s="7">
         <v>30</v>
@@ -3429,13 +3441,13 @@
         <v>19077</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3444,13 +3456,13 @@
         <v>42852</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3465,13 +3477,13 @@
         <v>27672</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -3480,13 +3492,13 @@
         <v>28046</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -3495,13 +3507,13 @@
         <v>55718</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3576,7 +3588,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB704F3-61F2-4F2E-BD83-612228C48067}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80BD357-7728-469D-9A46-48900766930D}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3593,7 +3605,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3700,13 +3712,13 @@
         <v>5017</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>28</v>
+        <v>227</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
@@ -3715,13 +3727,13 @@
         <v>3388</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>161</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
@@ -3730,13 +3742,13 @@
         <v>8406</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3751,13 +3763,13 @@
         <v>4770</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -3766,10 +3778,10 @@
         <v>2733</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>162</v>
@@ -3781,13 +3793,13 @@
         <v>7503</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3855,13 +3867,13 @@
         <v>18128</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>18</v>
@@ -3870,13 +3882,13 @@
         <v>12558</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
@@ -3885,13 +3897,13 @@
         <v>30687</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3906,13 +3918,13 @@
         <v>40714</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="H8" s="7">
         <v>37</v>
@@ -3921,13 +3933,13 @@
         <v>24554</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -3936,13 +3948,13 @@
         <v>65267</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4010,13 +4022,13 @@
         <v>5375</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="H10" s="7">
         <v>9</v>
@@ -4025,13 +4037,13 @@
         <v>5097</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
@@ -4040,13 +4052,13 @@
         <v>10471</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4061,13 +4073,13 @@
         <v>15548</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="H11" s="7">
         <v>17</v>
@@ -4076,13 +4088,13 @@
         <v>11760</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
@@ -4091,13 +4103,13 @@
         <v>27309</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>273</v>
+        <v>210</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4165,13 +4177,13 @@
         <v>28520</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="H13" s="7">
         <v>29</v>
@@ -4180,13 +4192,13 @@
         <v>21044</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>244</v>
+        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
@@ -4195,13 +4207,13 @@
         <v>49563</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4216,13 +4228,13 @@
         <v>61031</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="H14" s="7">
         <v>59</v>
@@ -4231,13 +4243,13 @@
         <v>39047</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>252</v>
+        <v>290</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
@@ -4246,13 +4258,13 @@
         <v>100079</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP09-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP09-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3B572BA3-F839-46E3-80F2-DC1B8E6FDF3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EB54F9D6-B881-4EF6-9FF1-2066D488427C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{A124198E-7EC6-47FC-9087-FED64E0CA478}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{7A86A697-6632-4D69-837F-2AFF4BF527B4}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="295">
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2007 (Tasa respuesta: 9,84%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="291">
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2007 (Tasa respuesta: 9,84%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -74,853 +74,841 @@
     <t>Sí</t>
   </si>
   <si>
+    <t>24,49%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>58,75%</t>
+  </si>
+  <si>
     <t>33,09%</t>
   </si>
   <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>59,88%</t>
-  </si>
-  <si>
-    <t>24,49%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>59,5%</t>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
   </si>
   <si>
     <t>29,4%</t>
   </si>
   <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>49,07%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>41,25%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>86,84%</t>
+  </si>
+  <si>
+    <t>70,6%</t>
+  </si>
+  <si>
+    <t>50,93%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>40,1%</t>
+  </si>
+  <si>
+    <t>30,05%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>39,99%</t>
+  </si>
+  <si>
+    <t>28,66%</t>
+  </si>
+  <si>
+    <t>21,37%</t>
+  </si>
+  <si>
+    <t>36,99%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>59,9%</t>
+  </si>
+  <si>
+    <t>69,95%</t>
+  </si>
+  <si>
+    <t>60,01%</t>
+  </si>
+  <si>
+    <t>80,11%</t>
+  </si>
+  <si>
+    <t>71,34%</t>
+  </si>
+  <si>
+    <t>63,01%</t>
+  </si>
+  <si>
+    <t>78,63%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>16,08%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>34,39%</t>
+  </si>
+  <si>
+    <t>23,13%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>40,13%</t>
+  </si>
+  <si>
+    <t>19,78%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>31,37%</t>
+  </si>
+  <si>
+    <t>83,92%</t>
+  </si>
+  <si>
+    <t>65,61%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>76,87%</t>
+  </si>
+  <si>
+    <t>59,87%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>80,22%</t>
+  </si>
+  <si>
+    <t>68,63%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>22,76%</t>
+  </si>
+  <si>
+    <t>14,34%</t>
+  </si>
+  <si>
+    <t>32,43%</t>
+  </si>
+  <si>
+    <t>28,8%</t>
+  </si>
+  <si>
+    <t>21,67%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>26,37%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>77,24%</t>
+  </si>
+  <si>
+    <t>67,57%</t>
+  </si>
+  <si>
+    <t>85,66%</t>
+  </si>
+  <si>
+    <t>71,2%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>78,33%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2012 (Tasa respuesta: 12,67%)</t>
+  </si>
+  <si>
+    <t>42,01%</t>
+  </si>
+  <si>
+    <t>20,8%</t>
+  </si>
+  <si>
+    <t>64,97%</t>
+  </si>
+  <si>
+    <t>60,14%</t>
+  </si>
+  <si>
+    <t>31,3%</t>
+  </si>
+  <si>
+    <t>81,3%</t>
+  </si>
+  <si>
+    <t>50,63%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>68,14%</t>
+  </si>
+  <si>
+    <t>57,99%</t>
+  </si>
+  <si>
+    <t>35,03%</t>
+  </si>
+  <si>
+    <t>79,2%</t>
+  </si>
+  <si>
+    <t>39,86%</t>
+  </si>
+  <si>
+    <t>18,7%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>49,37%</t>
+  </si>
+  <si>
+    <t>31,86%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>34,55%</t>
+  </si>
+  <si>
+    <t>25,06%</t>
+  </si>
+  <si>
+    <t>45,45%</t>
+  </si>
+  <si>
+    <t>32,51%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>41,66%</t>
+  </si>
+  <si>
+    <t>33,4%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
+  </si>
+  <si>
+    <t>65,45%</t>
+  </si>
+  <si>
+    <t>54,55%</t>
+  </si>
+  <si>
+    <t>74,94%</t>
+  </si>
+  <si>
+    <t>67,49%</t>
+  </si>
+  <si>
+    <t>58,34%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>66,6%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>50,07%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>42,35%</t>
+  </si>
+  <si>
+    <t>23,81%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>73,22%</t>
+  </si>
+  <si>
+    <t>49,93%</t>
+  </si>
+  <si>
+    <t>87,76%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
+  </si>
+  <si>
+    <t>89,66%</t>
+  </si>
+  <si>
+    <t>76,19%</t>
+  </si>
+  <si>
+    <t>63,8%</t>
+  </si>
+  <si>
+    <t>86,1%</t>
+  </si>
+  <si>
+    <t>34,27%</t>
+  </si>
+  <si>
+    <t>26,05%</t>
+  </si>
+  <si>
+    <t>42,84%</t>
+  </si>
+  <si>
+    <t>33,44%</t>
+  </si>
+  <si>
+    <t>42,65%</t>
+  </si>
+  <si>
+    <t>33,81%</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>40,34%</t>
+  </si>
+  <si>
+    <t>65,73%</t>
+  </si>
+  <si>
+    <t>57,16%</t>
+  </si>
+  <si>
+    <t>73,95%</t>
+  </si>
+  <si>
+    <t>66,56%</t>
+  </si>
+  <si>
+    <t>57,35%</t>
+  </si>
+  <si>
+    <t>66,19%</t>
+  </si>
+  <si>
+    <t>59,66%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2016 (Tasa respuesta: 6,87%)</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>74,81%</t>
+  </si>
+  <si>
+    <t>53,32%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>70,34%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>25,19%</t>
+  </si>
+  <si>
+    <t>46,68%</t>
+  </si>
+  <si>
+    <t>29,66%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>42,66%</t>
+  </si>
+  <si>
+    <t>28,81%</t>
+  </si>
+  <si>
+    <t>57,19%</t>
+  </si>
+  <si>
+    <t>43,48%</t>
+  </si>
+  <si>
+    <t>30,51%</t>
+  </si>
+  <si>
+    <t>56,71%</t>
+  </si>
+  <si>
+    <t>43,11%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>52,21%</t>
+  </si>
+  <si>
+    <t>57,34%</t>
+  </si>
+  <si>
+    <t>42,81%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>56,52%</t>
+  </si>
+  <si>
+    <t>43,29%</t>
+  </si>
+  <si>
+    <t>69,49%</t>
+  </si>
+  <si>
+    <t>56,89%</t>
+  </si>
+  <si>
+    <t>47,79%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>38,1%</t>
+  </si>
+  <si>
+    <t>16,42%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
+  </si>
+  <si>
+    <t>28,02%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>45,83%</t>
+  </si>
+  <si>
+    <t>29,13%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>61,9%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>83,58%</t>
+  </si>
+  <si>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>54,17%</t>
+  </si>
+  <si>
+    <t>35,8%</t>
+  </si>
+  <si>
+    <t>70,87%</t>
+  </si>
+  <si>
+    <t>40,48%</t>
+  </si>
+  <si>
+    <t>29,68%</t>
+  </si>
+  <si>
+    <t>52,38%</t>
+  </si>
+  <si>
+    <t>46,21%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>58,14%</t>
+  </si>
+  <si>
+    <t>43,47%</t>
+  </si>
+  <si>
+    <t>35,85%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>59,52%</t>
+  </si>
+  <si>
+    <t>47,62%</t>
+  </si>
+  <si>
+    <t>70,32%</t>
+  </si>
+  <si>
+    <t>53,79%</t>
+  </si>
+  <si>
+    <t>41,86%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>56,53%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>64,15%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen actualmente esa dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2023 (Tasa respuesta: 10,83%)</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>49,77%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>59,97%</t>
+  </si>
+  <si>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>50,23%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>40,03%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>32,68%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>46,92%</t>
+  </si>
+  <si>
+    <t>28,0%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>39,12%</t>
+  </si>
+  <si>
+    <t>67,32%</t>
+  </si>
+  <si>
+    <t>53,08%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>72,0%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>60,88%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
     <t>14,57%</t>
   </si>
   <si>
-    <t>48,64%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>40,12%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>40,5%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>70,6%</t>
-  </si>
-  <si>
-    <t>51,36%</t>
+    <t>53,73%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>44,37%</t>
+  </si>
+  <si>
+    <t>27,95%</t>
+  </si>
+  <si>
+    <t>17,53%</t>
+  </si>
+  <si>
+    <t>42,15%</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>46,27%</t>
   </si>
   <si>
     <t>85,43%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>30,05%</t>
-  </si>
-  <si>
-    <t>20,49%</t>
-  </si>
-  <si>
-    <t>40,34%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>14,55%</t>
-  </si>
-  <si>
-    <t>41,79%</t>
-  </si>
-  <si>
-    <t>28,66%</t>
-  </si>
-  <si>
-    <t>21,1%</t>
-  </si>
-  <si>
-    <t>37,85%</t>
-  </si>
-  <si>
-    <t>69,95%</t>
-  </si>
-  <si>
-    <t>59,66%</t>
-  </si>
-  <si>
-    <t>79,51%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>58,21%</t>
-  </si>
-  <si>
-    <t>85,45%</t>
-  </si>
-  <si>
-    <t>71,34%</t>
-  </si>
-  <si>
-    <t>62,15%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>43,09%</t>
-  </si>
-  <si>
-    <t>16,08%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>35,15%</t>
-  </si>
-  <si>
-    <t>19,78%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>33,48%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
-  </si>
-  <si>
-    <t>56,91%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>83,92%</t>
-  </si>
-  <si>
-    <t>64,85%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>80,22%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>28,8%</t>
-  </si>
-  <si>
-    <t>21,16%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>22,76%</t>
-  </si>
-  <si>
-    <t>14,4%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,37%</t>
-  </si>
-  <si>
-    <t>20,71%</t>
-  </si>
-  <si>
-    <t>32,99%</t>
-  </si>
-  <si>
-    <t>71,2%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>77,24%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>85,6%</t>
-  </si>
-  <si>
-    <t>73,63%</t>
-  </si>
-  <si>
-    <t>67,01%</t>
-  </si>
-  <si>
-    <t>79,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2012 (Tasa respuesta: 12,67%)</t>
-  </si>
-  <si>
-    <t>60,14%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>83,0%</t>
-  </si>
-  <si>
-    <t>42,01%</t>
-  </si>
-  <si>
-    <t>21,09%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>50,63%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>67,07%</t>
-  </si>
-  <si>
-    <t>39,86%</t>
-  </si>
-  <si>
-    <t>17,0%</t>
-  </si>
-  <si>
-    <t>57,99%</t>
-  </si>
-  <si>
-    <t>78,91%</t>
-  </si>
-  <si>
-    <t>49,37%</t>
-  </si>
-  <si>
-    <t>32,93%</t>
-  </si>
-  <si>
-    <t>66,63%</t>
-  </si>
-  <si>
-    <t>32,51%</t>
-  </si>
-  <si>
-    <t>23,09%</t>
-  </si>
-  <si>
-    <t>42,42%</t>
-  </si>
-  <si>
-    <t>34,55%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>45,49%</t>
-  </si>
-  <si>
-    <t>33,4%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>67,49%</t>
-  </si>
-  <si>
-    <t>57,58%</t>
-  </si>
-  <si>
-    <t>76,91%</t>
-  </si>
-  <si>
-    <t>65,45%</t>
-  </si>
-  <si>
-    <t>54,51%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>66,6%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>41,09%</t>
-  </si>
-  <si>
-    <t>26,78%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>49,02%</t>
-  </si>
-  <si>
-    <t>23,81%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>58,91%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>73,22%</t>
-  </si>
-  <si>
-    <t>50,98%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>76,19%</t>
-  </si>
-  <si>
-    <t>62,26%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>33,44%</t>
-  </si>
-  <si>
-    <t>26,45%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>34,27%</t>
-  </si>
-  <si>
-    <t>26,54%</t>
-  </si>
-  <si>
-    <t>43,41%</t>
-  </si>
-  <si>
-    <t>33,81%</t>
-  </si>
-  <si>
-    <t>28,24%</t>
-  </si>
-  <si>
-    <t>39,57%</t>
-  </si>
-  <si>
-    <t>66,56%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>65,73%</t>
-  </si>
-  <si>
-    <t>56,59%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>66,19%</t>
-  </si>
-  <si>
-    <t>60,43%</t>
-  </si>
-  <si>
-    <t>71,76%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2016 (Tasa respuesta: 6,87%)</t>
-  </si>
-  <si>
-    <t>53,32%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>11,74%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>46,68%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
-  </si>
-  <si>
-    <t>28,59%</t>
-  </si>
-  <si>
-    <t>88,26%</t>
-  </si>
-  <si>
-    <t>43,48%</t>
-  </si>
-  <si>
-    <t>29,04%</t>
-  </si>
-  <si>
-    <t>56,94%</t>
-  </si>
-  <si>
-    <t>42,66%</t>
-  </si>
-  <si>
-    <t>29,03%</t>
-  </si>
-  <si>
-    <t>57,91%</t>
-  </si>
-  <si>
-    <t>43,11%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>52,99%</t>
-  </si>
-  <si>
-    <t>56,52%</t>
-  </si>
-  <si>
-    <t>43,06%</t>
-  </si>
-  <si>
-    <t>70,96%</t>
-  </si>
-  <si>
-    <t>57,34%</t>
-  </si>
-  <si>
-    <t>42,09%</t>
-  </si>
-  <si>
-    <t>70,97%</t>
-  </si>
-  <si>
-    <t>56,89%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>27,8%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>38,1%</t>
-  </si>
-  <si>
-    <t>16,77%</t>
-  </si>
-  <si>
-    <t>62,37%</t>
-  </si>
-  <si>
-    <t>45,83%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>63,56%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>72,2%</t>
-  </si>
-  <si>
-    <t>61,9%</t>
-  </si>
-  <si>
-    <t>37,63%</t>
-  </si>
-  <si>
-    <t>83,23%</t>
-  </si>
-  <si>
-    <t>54,17%</t>
-  </si>
-  <si>
-    <t>36,44%</t>
-  </si>
-  <si>
-    <t>71,69%</t>
-  </si>
-  <si>
-    <t>46,21%</t>
-  </si>
-  <si>
-    <t>35,12%</t>
-  </si>
-  <si>
-    <t>58,5%</t>
-  </si>
-  <si>
-    <t>40,48%</t>
-  </si>
-  <si>
-    <t>29,06%</t>
-  </si>
-  <si>
-    <t>52,63%</t>
-  </si>
-  <si>
-    <t>43,47%</t>
-  </si>
-  <si>
-    <t>36,49%</t>
-  </si>
-  <si>
-    <t>52,28%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>41,5%</t>
-  </si>
-  <si>
-    <t>64,88%</t>
-  </si>
-  <si>
-    <t>59,52%</t>
-  </si>
-  <si>
-    <t>47,37%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>56,53%</t>
-  </si>
-  <si>
-    <t>47,72%</t>
-  </si>
-  <si>
-    <t>63,51%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen actualmente esa dolencia o enfermedad continuada en 2023 (Tasa respuesta: 10,83%)</t>
-  </si>
-  <si>
-    <t>51,26%</t>
-  </si>
-  <si>
-    <t>25,09%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>55,35%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>52,84%</t>
-  </si>
-  <si>
-    <t>31,84%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
-  </si>
-  <si>
-    <t>48,74%</t>
-  </si>
-  <si>
-    <t>22,49%</t>
-  </si>
-  <si>
-    <t>74,91%</t>
-  </si>
-  <si>
-    <t>44,65%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>47,16%</t>
-  </si>
-  <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>42,98%</t>
-  </si>
-  <si>
-    <t>33,84%</t>
-  </si>
-  <si>
-    <t>22,1%</t>
-  </si>
-  <si>
-    <t>48,85%</t>
-  </si>
-  <si>
-    <t>31,98%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>41,91%</t>
-  </si>
-  <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>57,02%</t>
-  </si>
-  <si>
-    <t>80,72%</t>
-  </si>
-  <si>
-    <t>66,16%</t>
-  </si>
-  <si>
-    <t>51,15%</t>
-  </si>
-  <si>
-    <t>77,9%</t>
-  </si>
-  <si>
-    <t>68,02%</t>
-  </si>
-  <si>
-    <t>58,09%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>25,69%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>47,99%</t>
-  </si>
-  <si>
-    <t>30,24%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>50,82%</t>
-  </si>
-  <si>
-    <t>27,72%</t>
-  </si>
-  <si>
-    <t>16,79%</t>
-  </si>
-  <si>
-    <t>74,31%</t>
-  </si>
-  <si>
-    <t>52,01%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>49,18%</t>
-  </si>
-  <si>
-    <t>85,64%</t>
-  </si>
-  <si>
-    <t>72,28%</t>
-  </si>
-  <si>
-    <t>83,21%</t>
-  </si>
-  <si>
-    <t>31,85%</t>
-  </si>
-  <si>
-    <t>21,99%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>25,34%</t>
-  </si>
-  <si>
-    <t>47,54%</t>
-  </si>
-  <si>
-    <t>33,12%</t>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>55,63%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>57,85%</t>
+  </si>
+  <si>
+    <t>82,47%</t>
+  </si>
+  <si>
+    <t>38,07%</t>
+  </si>
+  <si>
+    <t>26,7%</t>
+  </si>
+  <si>
+    <t>56,99%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>18,61%</t>
+  </si>
+  <si>
+    <t>39,25%</t>
   </si>
   <si>
     <t>25,71%</t>
   </si>
   <si>
-    <t>40,67%</t>
-  </si>
-  <si>
-    <t>68,15%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>78,01%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>52,46%</t>
-  </si>
-  <si>
-    <t>74,66%</t>
-  </si>
-  <si>
-    <t>66,88%</t>
-  </si>
-  <si>
-    <t>59,33%</t>
+    <t>42,58%</t>
+  </si>
+  <si>
+    <t>61,93%</t>
+  </si>
+  <si>
+    <t>43,01%</t>
+  </si>
+  <si>
+    <t>73,3%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>60,75%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>57,42%</t>
   </si>
   <si>
     <t>74,29%</t>
@@ -1335,7 +1323,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06F44421-3B5F-497D-BF9C-B14528E49831}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF8BA50-B917-4721-AAAD-F9C6DB517D17}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1453,10 +1441,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>3431</v>
+        <v>1915</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1468,10 +1456,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>1915</v>
+        <v>3431</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1504,10 +1492,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D5" s="7">
-        <v>6936</v>
+        <v>5903</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1519,10 +1507,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I5" s="7">
-        <v>5903</v>
+        <v>6936</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1555,25 +1543,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>11</v>
+      </c>
+      <c r="D6" s="7">
+        <v>7818</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>10367</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>11</v>
-      </c>
-      <c r="I6" s="7">
-        <v>7818</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1608,34 +1596,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>16061</v>
+        <v>8013</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>24</v>
+      </c>
+      <c r="I7" s="7">
+        <v>16061</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="H7" s="7">
-        <v>12</v>
-      </c>
-      <c r="I7" s="7">
-        <v>8013</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>36</v>
@@ -1644,13 +1632,13 @@
         <v>24073</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1659,34 +1647,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>34</v>
+      </c>
+      <c r="D8" s="7">
+        <v>22547</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H8" s="7">
         <v>56</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>37380</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>34</v>
-      </c>
-      <c r="I8" s="7">
-        <v>22547</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>44</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
@@ -1695,13 +1683,13 @@
         <v>59927</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1710,25 +1698,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>46</v>
+      </c>
+      <c r="D9" s="7">
+        <v>30560</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>80</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>53441</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>46</v>
-      </c>
-      <c r="I9" s="7">
-        <v>30560</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1757,40 +1745,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>4</v>
+      </c>
+      <c r="D10" s="7">
+        <v>2873</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>4550</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>4</v>
-      </c>
-      <c r="I10" s="7">
-        <v>2873</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>11</v>
@@ -1799,13 +1787,13 @@
         <v>7423</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1817,31 +1805,31 @@
         <v>22</v>
       </c>
       <c r="D11" s="7">
-        <v>15120</v>
+        <v>14993</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H11" s="7">
         <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>14993</v>
+        <v>15120</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>44</v>
@@ -1850,13 +1838,13 @@
         <v>30113</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1865,25 +1853,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>26</v>
+      </c>
+      <c r="D12" s="7">
+        <v>17866</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>29</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>19670</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>26</v>
-      </c>
-      <c r="I12" s="7">
-        <v>17866</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1918,34 +1906,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>19</v>
+      </c>
+      <c r="D13" s="7">
+        <v>12800</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="H13" s="7">
         <v>36</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>24042</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="H13" s="7">
-        <v>19</v>
-      </c>
-      <c r="I13" s="7">
-        <v>12800</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>74</v>
       </c>
       <c r="M13" s="7">
         <v>55</v>
@@ -1954,13 +1942,13 @@
         <v>36842</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>75</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1969,34 +1957,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>64</v>
+      </c>
+      <c r="D14" s="7">
+        <v>43443</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="H14" s="7">
         <v>88</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>59436</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="H14" s="7">
-        <v>64</v>
-      </c>
-      <c r="I14" s="7">
-        <v>43443</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>81</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>83</v>
       </c>
       <c r="M14" s="7">
         <v>152</v>
@@ -2005,13 +1993,13 @@
         <v>102879</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2020,25 +2008,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>83</v>
+      </c>
+      <c r="D15" s="7">
+        <v>56243</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>124</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>83478</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>83</v>
-      </c>
-      <c r="I15" s="7">
-        <v>56243</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2067,7 +2055,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2086,7 +2074,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{74416689-6218-43D4-9CD7-E8F15DA61CA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E431AF3E-B605-4255-84B2-99C48B2780AE}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2103,7 +2091,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2204,34 +2192,34 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>8</v>
+      </c>
+      <c r="D4" s="7">
+        <v>5355</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="H4" s="7">
         <v>10</v>
       </c>
-      <c r="D4" s="7">
+      <c r="I4" s="7">
         <v>6946</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="F4" s="7" t="s">
+      <c r="J4" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H4" s="7">
-        <v>8</v>
-      </c>
-      <c r="I4" s="7">
-        <v>5355</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M4" s="7">
         <v>18</v>
@@ -2240,13 +2228,13 @@
         <v>12302</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>95</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2255,31 +2243,31 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>11</v>
+      </c>
+      <c r="D5" s="7">
+        <v>7391</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="H5" s="7">
         <v>6</v>
       </c>
-      <c r="D5" s="7">
+      <c r="I5" s="7">
         <v>4605</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="J5" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G5" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="7">
-        <v>11</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7391</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>101</v>
@@ -2306,25 +2294,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>19</v>
+      </c>
+      <c r="D6" s="7">
+        <v>12746</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>16</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>11551</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>19</v>
-      </c>
-      <c r="I6" s="7">
-        <v>12746</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -2359,10 +2347,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="D7" s="7">
-        <v>22883</v>
+        <v>18961</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>105</v>
@@ -2374,10 +2362,10 @@
         <v>107</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="I7" s="7">
-        <v>18961</v>
+        <v>22883</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>108</v>
@@ -2410,10 +2398,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>68</v>
+        <v>52</v>
       </c>
       <c r="D8" s="7">
-        <v>47512</v>
+        <v>35922</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>114</v>
@@ -2425,10 +2413,10 @@
         <v>116</v>
       </c>
       <c r="H8" s="7">
-        <v>52</v>
+        <v>68</v>
       </c>
       <c r="I8" s="7">
-        <v>35922</v>
+        <v>47512</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>117</v>
@@ -2461,25 +2449,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>80</v>
+      </c>
+      <c r="D9" s="7">
+        <v>54883</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>100</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>70395</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>80</v>
-      </c>
-      <c r="I9" s="7">
-        <v>54883</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2508,7 +2496,7 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
@@ -2517,7 +2505,7 @@
         <v>6</v>
       </c>
       <c r="D10" s="7">
-        <v>4422</v>
+        <v>4081</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>123</v>
@@ -2532,7 +2520,7 @@
         <v>6</v>
       </c>
       <c r="I10" s="7">
-        <v>4081</v>
+        <v>4422</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>126</v>
@@ -2565,10 +2553,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D11" s="7">
-        <v>16052</v>
+        <v>11159</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>132</v>
@@ -2580,10 +2568,10 @@
         <v>134</v>
       </c>
       <c r="H11" s="7">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I11" s="7">
-        <v>11159</v>
+        <v>16052</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>135</v>
@@ -2616,25 +2604,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7">
+        <v>15240</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>28</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>20474</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>23</v>
-      </c>
-      <c r="I12" s="7">
-        <v>15240</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2669,10 +2657,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D13" s="7">
-        <v>34252</v>
+        <v>28397</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>141</v>
@@ -2684,19 +2672,19 @@
         <v>143</v>
       </c>
       <c r="H13" s="7">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>28397</v>
+        <v>34252</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>144</v>
       </c>
       <c r="K13" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>146</v>
       </c>
       <c r="M13" s="7">
         <v>90</v>
@@ -2705,13 +2693,13 @@
         <v>62649</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>147</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,34 +2708,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>80</v>
+      </c>
+      <c r="D14" s="7">
+        <v>54472</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="H14" s="7">
         <v>96</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>68167</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="H14" s="7">
-        <v>80</v>
-      </c>
-      <c r="I14" s="7">
-        <v>54472</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M14" s="7">
         <v>176</v>
@@ -2756,13 +2744,13 @@
         <v>122640</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2771,25 +2759,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>122</v>
+      </c>
+      <c r="D15" s="7">
+        <v>82869</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>144</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>102419</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>122</v>
-      </c>
-      <c r="I15" s="7">
-        <v>82869</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2818,7 +2806,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -2837,7 +2825,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3152F4D9-49D2-469A-AC0C-341C1AE71257}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F98ECC86-5CE2-4CF9-A33F-A7FD048B0521}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2854,7 +2842,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2958,31 +2946,31 @@
         <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>1479</v>
+        <v>1400</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="H4" s="7">
         <v>2</v>
       </c>
       <c r="I4" s="7">
-        <v>1400</v>
+        <v>1479</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="M4" s="7">
         <v>4</v>
@@ -2991,13 +2979,13 @@
         <v>2878</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3006,31 +2994,31 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>1294</v>
+        <v>3049</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>161</v>
+        <v>166</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>162</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I5" s="7">
-        <v>3049</v>
+        <v>1294</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>162</v>
@@ -3042,13 +3030,13 @@
         <v>4344</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3057,25 +3045,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>4449</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>4</v>
       </c>
-      <c r="D6" s="7">
+      <c r="I6" s="7">
         <v>2773</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
-      <c r="I6" s="7">
-        <v>4449</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3110,34 +3098,34 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>21</v>
+      </c>
+      <c r="D7" s="7">
+        <v>13259</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>171</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="H7" s="7">
         <v>24</v>
       </c>
-      <c r="D7" s="7">
+      <c r="I7" s="7">
         <v>16745</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="J7" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="H7" s="7">
-        <v>21</v>
-      </c>
-      <c r="I7" s="7">
-        <v>13259</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>175</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>177</v>
       </c>
       <c r="M7" s="7">
         <v>45</v>
@@ -3146,13 +3134,13 @@
         <v>30004</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3161,34 +3149,34 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>26</v>
+      </c>
+      <c r="D8" s="7">
+        <v>17818</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="H8" s="7">
         <v>31</v>
       </c>
-      <c r="D8" s="7">
+      <c r="I8" s="7">
         <v>21770</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="J8" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="H8" s="7">
-        <v>26</v>
-      </c>
-      <c r="I8" s="7">
-        <v>17818</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>57</v>
@@ -3197,13 +3185,13 @@
         <v>39588</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3212,25 +3200,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>47</v>
+      </c>
+      <c r="D9" s="7">
+        <v>31077</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>55</v>
       </c>
-      <c r="D9" s="7">
+      <c r="I9" s="7">
         <v>38515</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>47</v>
-      </c>
-      <c r="I9" s="7">
-        <v>31077</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3259,40 +3247,40 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>7</v>
+      </c>
+      <c r="D10" s="7">
+        <v>4418</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="H10" s="7">
         <v>8</v>
       </c>
-      <c r="D10" s="7">
+      <c r="I10" s="7">
         <v>5552</v>
       </c>
-      <c r="E10" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>192</v>
       </c>
-      <c r="H10" s="7">
-        <v>7</v>
-      </c>
-      <c r="I10" s="7">
-        <v>4418</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M10" s="7">
         <v>15</v>
@@ -3301,13 +3289,13 @@
         <v>9970</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,34 +3304,34 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>11</v>
+      </c>
+      <c r="D11" s="7">
+        <v>7179</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H11" s="7">
         <v>7</v>
       </c>
-      <c r="D11" s="7">
+      <c r="I11" s="7">
         <v>4607</v>
       </c>
-      <c r="E11" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="J11" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="H11" s="7">
-        <v>11</v>
-      </c>
-      <c r="I11" s="7">
-        <v>7179</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>204</v>
       </c>
       <c r="M11" s="7">
         <v>18</v>
@@ -3352,13 +3340,13 @@
         <v>11786</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3367,25 +3355,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>18</v>
+      </c>
+      <c r="D12" s="7">
+        <v>11597</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>15</v>
       </c>
-      <c r="D12" s="7">
+      <c r="I12" s="7">
         <v>10159</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>18</v>
-      </c>
-      <c r="I12" s="7">
-        <v>11597</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3420,34 +3408,34 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>30</v>
+      </c>
+      <c r="D13" s="7">
+        <v>19077</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H13" s="7">
         <v>34</v>
       </c>
-      <c r="D13" s="7">
+      <c r="I13" s="7">
         <v>23775</v>
       </c>
-      <c r="E13" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="J13" s="7" t="s">
         <v>209</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="H13" s="7">
-        <v>30</v>
-      </c>
-      <c r="I13" s="7">
-        <v>19077</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M13" s="7">
         <v>64</v>
@@ -3456,13 +3444,13 @@
         <v>42852</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,34 +3459,34 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>42</v>
+      </c>
+      <c r="D14" s="7">
+        <v>28046</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="H14" s="7">
         <v>40</v>
       </c>
-      <c r="D14" s="7">
+      <c r="I14" s="7">
         <v>27672</v>
       </c>
-      <c r="E14" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="J14" s="7" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="H14" s="7">
-        <v>42</v>
-      </c>
-      <c r="I14" s="7">
-        <v>28046</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="M14" s="7">
         <v>82</v>
@@ -3507,13 +3495,13 @@
         <v>55718</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3522,25 +3510,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>72</v>
+      </c>
+      <c r="D15" s="7">
+        <v>47123</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>74</v>
       </c>
-      <c r="D15" s="7">
+      <c r="I15" s="7">
         <v>51447</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>72</v>
-      </c>
-      <c r="I15" s="7">
-        <v>47123</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3569,7 +3557,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -3588,7 +3576,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C80BD357-7728-469D-9A46-48900766930D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A8A56975-C56E-4CF6-AC65-DC41A913152A}">
   <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3605,7 +3593,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3706,49 +3694,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
+        <v>6740</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="H4" s="7">
         <v>7</v>
       </c>
-      <c r="D4" s="7">
-        <v>5017</v>
-      </c>
-      <c r="E4" s="7" t="s">
+      <c r="I4" s="7">
+        <v>5428</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>228</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>229</v>
-      </c>
-      <c r="H4" s="7">
-        <v>2</v>
-      </c>
-      <c r="I4" s="7">
-        <v>3388</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>9</v>
       </c>
       <c r="N4" s="7">
-        <v>8406</v>
+        <v>12169</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>232</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3757,49 +3745,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
+        <v>5</v>
+      </c>
+      <c r="D5" s="7">
+        <v>2642</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="H5" s="7">
         <v>8</v>
       </c>
-      <c r="D5" s="7">
-        <v>4770</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="I5" s="7">
+        <v>5480</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="H5" s="7">
-        <v>5</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2733</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>162</v>
       </c>
       <c r="M5" s="7">
         <v>13</v>
       </c>
       <c r="N5" s="7">
-        <v>7503</v>
+        <v>8121</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>240</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3808,25 +3796,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7">
+        <v>9382</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>15</v>
       </c>
-      <c r="D6" s="7">
-        <v>9787</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>7</v>
-      </c>
       <c r="I6" s="7">
-        <v>6121</v>
+        <v>10908</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3841,7 +3829,7 @@
         <v>22</v>
       </c>
       <c r="N6" s="7">
-        <v>15909</v>
+        <v>20290</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3861,49 +3849,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
+        <v>18</v>
+      </c>
+      <c r="D7" s="7">
+        <v>12029</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="H7" s="7">
         <v>26</v>
       </c>
-      <c r="D7" s="7">
-        <v>18128</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F7" s="7" t="s">
+      <c r="I7" s="7">
+        <v>18432</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="7">
-        <v>18</v>
-      </c>
-      <c r="I7" s="7">
-        <v>12558</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>247</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="M7" s="7">
         <v>44</v>
       </c>
       <c r="N7" s="7">
-        <v>30687</v>
+        <v>30461</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>249</v>
+        <v>207</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3912,49 +3900,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>37</v>
+      </c>
+      <c r="D8" s="7">
+        <v>24778</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>251</v>
+      </c>
+      <c r="H8" s="7">
         <v>53</v>
       </c>
-      <c r="D8" s="7">
-        <v>40714</v>
-      </c>
-      <c r="E8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>47385</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>254</v>
-      </c>
-      <c r="H8" s="7">
-        <v>37</v>
-      </c>
-      <c r="I8" s="7">
-        <v>24554</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>257</v>
       </c>
       <c r="M8" s="7">
         <v>90</v>
       </c>
       <c r="N8" s="7">
-        <v>65267</v>
+        <v>72163</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>258</v>
+        <v>217</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3963,25 +3951,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>55</v>
+      </c>
+      <c r="D9" s="7">
+        <v>36807</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>79</v>
       </c>
-      <c r="D9" s="7">
-        <v>58842</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>55</v>
-      </c>
       <c r="I9" s="7">
-        <v>37112</v>
+        <v>65817</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3996,7 +3984,7 @@
         <v>134</v>
       </c>
       <c r="N9" s="7">
-        <v>95954</v>
+        <v>102624</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4010,55 +3998,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>9</v>
+      </c>
+      <c r="D10" s="7">
+        <v>5132</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="H10" s="7">
         <v>7</v>
       </c>
-      <c r="D10" s="7">
-        <v>5375</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>5740</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>262</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="H10" s="7">
-        <v>9</v>
-      </c>
-      <c r="I10" s="7">
-        <v>5097</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>264</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>266</v>
       </c>
       <c r="M10" s="7">
         <v>16</v>
       </c>
       <c r="N10" s="7">
-        <v>10471</v>
+        <v>10872</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>218</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4067,49 +4055,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>17</v>
+      </c>
+      <c r="D11" s="7">
+        <v>11461</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="H11" s="7">
         <v>19</v>
       </c>
-      <c r="D11" s="7">
-        <v>15548</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>16564</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="H11" s="7">
-        <v>17</v>
-      </c>
-      <c r="I11" s="7">
-        <v>11760</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>273</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>274</v>
       </c>
       <c r="M11" s="7">
         <v>36</v>
       </c>
       <c r="N11" s="7">
-        <v>27309</v>
+        <v>28025</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>210</v>
+        <v>273</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4121,7 +4109,7 @@
         <v>26</v>
       </c>
       <c r="D12" s="7">
-        <v>20923</v>
+        <v>16593</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4136,7 +4124,7 @@
         <v>26</v>
       </c>
       <c r="I12" s="7">
-        <v>16857</v>
+        <v>22304</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4151,7 +4139,7 @@
         <v>52</v>
       </c>
       <c r="N12" s="7">
-        <v>37780</v>
+        <v>38897</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4171,49 +4159,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>29</v>
+      </c>
+      <c r="D13" s="7">
+        <v>23901</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="H13" s="7">
         <v>40</v>
       </c>
-      <c r="D13" s="7">
-        <v>28520</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>29601</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="H13" s="7">
-        <v>29</v>
-      </c>
-      <c r="I13" s="7">
-        <v>21044</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>282</v>
       </c>
       <c r="M13" s="7">
         <v>69</v>
       </c>
       <c r="N13" s="7">
-        <v>49563</v>
+        <v>53502</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>283</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4222,49 +4210,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>59</v>
+      </c>
+      <c r="D14" s="7">
+        <v>38881</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H14" s="7">
         <v>80</v>
       </c>
-      <c r="D14" s="7">
-        <v>61031</v>
-      </c>
-      <c r="E14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>69428</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="H14" s="7">
-        <v>59</v>
-      </c>
-      <c r="I14" s="7">
-        <v>39047</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>291</v>
       </c>
       <c r="M14" s="7">
         <v>139</v>
       </c>
       <c r="N14" s="7">
-        <v>100079</v>
+        <v>108309</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>292</v>
+        <v>83</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4273,25 +4261,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>88</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62782</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>120</v>
       </c>
-      <c r="D15" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>88</v>
-      </c>
       <c r="I15" s="7">
-        <v>60091</v>
+        <v>99029</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4306,7 +4294,7 @@
         <v>208</v>
       </c>
       <c r="N15" s="7">
-        <v>149642</v>
+        <v>161811</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4320,7 +4308,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
